--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,11</t>
+          <t>1,18; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,99</t>
+          <t>2,09; 5,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,66</t>
+          <t>0,48; 2,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 15,52</t>
+          <t>9,66; 15,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,34</t>
+          <t>7,52; 13,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,2</t>
+          <t>3,62; 7,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,97</t>
+          <t>5,63; 8,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,59</t>
+          <t>5,21; 8,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,86</t>
+          <t>2,29; 4,79</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,43; 5,4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>2,33; 5,35</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 5,27</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,92</t>
+          <t>1,38; 3,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,67</t>
+          <t>15,39; 22,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,21</t>
+          <t>14,71; 20,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,98</t>
+          <t>6,4; 11,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 12,34</t>
+          <t>8,96; 12,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,08</t>
+          <t>8,7; 12,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,85</t>
+          <t>4,34; 6,78</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>1,25; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,47</t>
+          <t>1,81; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,53</t>
+          <t>0,15; 1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,06</t>
+          <t>5,1; 9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,84</t>
+          <t>5,92; 10,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,6</t>
+          <t>2,57; 5,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,87</t>
+          <t>3,55; 5,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,65</t>
+          <t>4,24; 6,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,03</t>
+          <t>1,48; 3,07</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,8</t>
+          <t>0,4; 2,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,49</t>
+          <t>1,73; 4,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,61</t>
+          <t>0,17; 1,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,03</t>
+          <t>3,21; 7,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,44</t>
+          <t>3,31; 7,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,89</t>
+          <t>1,97; 4,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,35</t>
+          <t>2,12; 4,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,22</t>
+          <t>2,89; 5,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,74</t>
+          <t>1,2; 2,81</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,74</t>
+          <t>0,55; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,48</t>
+          <t>0,25; 2,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,13</t>
+          <t>1,02; 4,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,56</t>
+          <t>0,93; 3,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,45</t>
+          <t>0,47; 3,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,17</t>
+          <t>1,09; 3,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,42</t>
+          <t>0,84; 2,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,56</t>
+          <t>0,36; 1,66</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,71</t>
+          <t>0,19; 1,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,65</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,12</t>
+          <t>0,56; 2,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,74</t>
+          <t>1,34; 3,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,5</t>
+          <t>0,39; 1,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,55</t>
+          <t>1,02; 2,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,86</t>
+          <t>0,14; 0,79</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>2,01; 3,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,91; 8,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,49; 8,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,93; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,44; 5,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,5; 5,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,05</t>
+          <t>1,21; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,61</t>
+          <t>2,05; 5,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,71</t>
+          <t>0,47; 2,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,72</t>
+          <t>9,86; 15,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,37</t>
+          <t>7,38; 13,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,9</t>
+          <t>3,72; 8,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,76</t>
+          <t>5,63; 8,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,62</t>
+          <t>5,28; 8,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,79</t>
+          <t>2,29; 4,7</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,4</t>
+          <t>2,39; 5,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,35</t>
+          <t>2,22; 5,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,86</t>
+          <t>1,45; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 22,05</t>
+          <t>15,76; 22,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,99</t>
+          <t>15,28; 21,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,01</t>
+          <t>6,63; 11,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,36</t>
+          <t>8,83; 12,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,18</t>
+          <t>8,58; 12,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,78</t>
+          <t>4,25; 6,86</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,4</t>
+          <t>1,17; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,32</t>
+          <t>1,85; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,39</t>
+          <t>0,15; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,21</t>
+          <t>5,14; 8,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,02</t>
+          <t>5,92; 9,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,55</t>
+          <t>2,46; 5,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,91</t>
+          <t>3,46; 5,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,73</t>
+          <t>4,22; 6,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,07</t>
+          <t>1,56; 3,08</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,86</t>
+          <t>0,39; 2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,86</t>
+          <t>1,59; 4,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,54</t>
+          <t>0,17; 1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,1</t>
+          <t>3,26; 7,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,24</t>
+          <t>3,47; 7,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,81</t>
+          <t>2,01; 4,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,3</t>
+          <t>2,05; 4,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,17</t>
+          <t>2,89; 5,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,81</t>
+          <t>1,18; 2,83</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,45</t>
+          <t>0,68; 3,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,31</t>
+          <t>0,26; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,15</t>
+          <t>0,97; 4,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,59</t>
+          <t>0,76; 3,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,03</t>
+          <t>0,7; 3,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,22</t>
+          <t>1,01; 3,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,44</t>
+          <t>0,74; 2,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,66</t>
+          <t>0,35; 1,55</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,85</t>
+          <t>0,19; 1,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,55</t>
+          <t>0,16; 1,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,18</t>
+          <t>0,54; 2,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,8</t>
+          <t>1,27; 3,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,49</t>
+          <t>0,4; 1,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,57</t>
+          <t>0,96; 2,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,79</t>
+          <t>0,14; 0,74</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,63</t>
+          <t>1,52; 2,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,15</t>
+          <t>1,98; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,31</t>
+          <t>0,65; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,91; 8,72</t>
+          <t>6,92; 8,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 8,27</t>
+          <t>6,62; 8,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,17</t>
+          <t>2,98; 4,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 5,52</t>
+          <t>4,45; 5,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,6</t>
+          <t>4,48; 5,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,68</t>
+          <t>1,97; 2,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,97</t>
+          <t>1,17; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,86</t>
+          <t>2,27; 5,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,95</t>
+          <t>0,47; 2,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 15,93</t>
+          <t>9,83; 15,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,48</t>
+          <t>7,42; 13,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,25</t>
+          <t>3,9; 8,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,93</t>
+          <t>5,88; 8,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,46</t>
+          <t>5,14; 8,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,7</t>
+          <t>2,39; 4,86</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,29</t>
+          <t>2,33; 5,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,25</t>
+          <t>2,16; 5,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,0</t>
+          <t>1,38; 3,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,1</t>
+          <t>15,44; 21,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,36</t>
+          <t>15,0; 21,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,14</t>
+          <t>6,43; 10,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,26</t>
+          <t>8,95; 12,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,05</t>
+          <t>8,75; 12,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,86</t>
+          <t>4,18; 6,85</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,37</t>
+          <t>1,29; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,56</t>
+          <t>1,85; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,44</t>
+          <t>0,15; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,9</t>
+          <t>5,02; 9,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,76</t>
+          <t>5,71; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,44</t>
+          <t>2,55; 5,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,83</t>
+          <t>3,49; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,7</t>
+          <t>4,29; 6,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,08</t>
+          <t>1,44; 3,03</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,89</t>
+          <t>0,4; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,5</t>
+          <t>1,59; 4,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,64</t>
+          <t>0,17; 1,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,44</t>
+          <t>3,32; 7,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,47</t>
+          <t>3,39; 7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,94</t>
+          <t>1,91; 4,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,19</t>
+          <t>2,09; 4,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,35</t>
+          <t>2,78; 5,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,83</t>
+          <t>1,18; 2,74</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,62</t>
+          <t>0,68; 3,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,57</t>
+          <t>0,25; 2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,0</t>
+          <t>0,97; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,54</t>
+          <t>0,94; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,3</t>
+          <t>0,7; 3,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,23</t>
+          <t>1,1; 3,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,46</t>
+          <t>0,83; 2,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,55</t>
+          <t>0,36; 1,56</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,74</t>
+          <t>0,19; 1,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,06</t>
+          <t>0,54; 2,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,87</t>
+          <t>1,33; 3,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,17 +1265,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,54</t>
+          <t>0,46; 1,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,46</t>
+          <t>1,03; 2,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,74</t>
+          <t>0,14; 0,86</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,53</t>
+          <t>1,52; 2,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,1</t>
+          <t>2,04; 3,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,32</t>
+          <t>0,66; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,94; 8,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,62; 8,31</t>
+          <t>6,55; 8,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,22</t>
+          <t>2,98; 4,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,6</t>
+          <t>4,39; 5,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,58</t>
+          <t>4,52; 5,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,64</t>
+          <t>1,93; 2,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,71</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,65</t>
+          <t>0,29; 3,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,12</t>
+          <t>0,56; 3,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,74</t>
+          <t>0,84; 5,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,5</t>
+          <t>0,56; 2,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,55</t>
+          <t>0,75; 3,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,86</t>
+          <t>0,26; 1,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,27</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 4,26</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 3,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,52; 2,51</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,04; 3,12</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,66; 1,27</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>6,94; 8,87</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>6,55; 8,33</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,98; 4,14</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,39; 5,43</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>4,52; 5,58</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,93; 2,63</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,11</t>
+          <t>1,14; 3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,99</t>
+          <t>2,14; 5,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,66</t>
+          <t>0,47; 2,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 15,52</t>
+          <t>9,72; 15,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,34</t>
+          <t>7,32; 13,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,2</t>
+          <t>3,67; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,97</t>
+          <t>5,66; 8,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,59</t>
+          <t>5,14; 8,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,86</t>
+          <t>2,38; 4,91</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,35</t>
+          <t>2,38; 5,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,27</t>
+          <t>2,24; 5,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,92</t>
+          <t>1,45; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,67</t>
+          <t>15,66; 21,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,21</t>
+          <t>15,07; 21,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,98</t>
+          <t>6,51; 10,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 12,34</t>
+          <t>8,82; 12,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,08</t>
+          <t>8,72; 12,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,85</t>
+          <t>4,4; 7,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>1,14; 3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,47</t>
+          <t>1,77; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,53</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,06</t>
+          <t>5,09; 9,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,84</t>
+          <t>6,05; 10,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,6</t>
+          <t>2,56; 5,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,87</t>
+          <t>3,55; 5,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,65</t>
+          <t>4,21; 6,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,03</t>
+          <t>1,55; 3,1</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,8</t>
+          <t>0,44; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,49</t>
+          <t>1,71; 4,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,61</t>
+          <t>0,17; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,03</t>
+          <t>3,19; 7,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,44</t>
+          <t>3,36; 7,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,89</t>
+          <t>1,76; 4,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,35</t>
+          <t>2,11; 4,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,22</t>
+          <t>2,94; 5,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,74</t>
+          <t>1,21; 2,72</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,74</t>
+          <t>0,64; 3,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,48</t>
+          <t>0,26; 2,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,13</t>
+          <t>0,95; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,56</t>
+          <t>0,75; 3,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,45</t>
+          <t>0,7; 3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,17</t>
+          <t>0,97; 3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,42</t>
+          <t>0,84; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,56</t>
+          <t>0,35; 1,67</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,16</t>
+          <t>0,29; 2,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,44</t>
+          <t>0,55; 3,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,15</t>
+          <t>1,0; 5,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,15</t>
+          <t>0,57; 2,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,2</t>
+          <t>0,61; 3,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,53</t>
+          <t>0,27; 1,53</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1351,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,26</t>
+          <t>1,12; 4,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,04</t>
+          <t>0,86; 3,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,51; 2,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>1,99; 3,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,92; 8,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,52; 8,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,94; 4,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,39; 5,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,53; 5,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,65</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11153</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16162</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5092</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>58119</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>42547</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22382</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>69271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>58708</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27473</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5621; 19560</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9697; 25646</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1969; 11322</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>45446; 72119</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31326; 55804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14525; 31705</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54441; 84796</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45241; 75542</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19328; 39857</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26830</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23910</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14770</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>116112</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>109424</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48290</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>142941</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>133333</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63060</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17515; 38897</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15349; 35302</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8502; 23402</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>97949; 135812</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>91810; 130812</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36676; 61426</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120081; 164414</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112806; 155944</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>50651; 80727</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13321</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19741</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47745</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54451</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25043</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61067</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74192</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29012</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7282; 21940</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12025; 30483</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1016; 9062</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35090; 62273</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>42733; 72069</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16845; 36284</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47138; 75830</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58362; 91596</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20530; 41112</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6314</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16994</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31064</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19951</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31837</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48058</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24160</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2295; 14532</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10463; 29033</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1107; 10624</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16472; 36946</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20640; 44171</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11359; 30565</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21821; 44464</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36051; 64818</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15646; 35027</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8753</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8527</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15055</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12822</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8075</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2474; 13906</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1131; 10138</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2156</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3856; 16533</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3352; 15356</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3450; 16053</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7668; 24027</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7378; 22106</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3425; 16170</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1775</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3856</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5589</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8344</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7364</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10442</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5840</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7430</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>960; 9690</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1879; 11499</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3534; 17706</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5161</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3621; 13601</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4040; 20460</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1942; 10791</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8742</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>10843</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6429</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1628</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7117</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4326; 16599</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2544</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6758</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5478; 19625</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>85301</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31896</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>263098</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>124757</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>329626</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>348399</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>156653</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>49328; 82988</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>67959; 106551</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>21737; 46443</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>233817; 295437</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>231049; 297812</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>103962; 145822</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>292503; 368021</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>315059; 389265</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>133144; 182921</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>